--- a/Sorteio times posição-nivel e adm/Lista de Jogadores/bancodedados.xlsx
+++ b/Sorteio times posição-nivel e adm/Lista de Jogadores/bancodedados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edson\Documents\GitHub\Pelada100Pressao\Sorteio times posição-nivel e adm\Lista de Jogadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3150ADD5-7042-491F-BB08-67F787238E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38524BC6-6EC4-43A5-A12A-78214429154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{83CB205B-243F-4188-AD5D-AD4961CDDABE}"/>
   </bookViews>
@@ -721,33 +721,33 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -762,24 +762,24 @@
         <v>73</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>73</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -813,22 +813,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>70</v>
@@ -836,22 +836,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>70</v>
@@ -859,42 +859,42 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>73</v>
@@ -905,22 +905,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>70</v>
@@ -928,22 +928,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>70</v>
@@ -951,19 +951,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>73</v>
@@ -974,22 +974,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>70</v>
@@ -997,45 +997,45 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>70</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
@@ -1066,22 +1066,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>70</v>
@@ -1089,22 +1089,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>70</v>
@@ -1112,19 +1112,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>73</v>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -1150,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>70</v>
@@ -1158,22 +1158,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>70</v>
@@ -1181,45 +1181,45 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>70</v>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
@@ -1242,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>70</v>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
@@ -1273,19 +1273,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
         <v>3.5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
@@ -1296,22 +1296,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>70</v>
@@ -1319,19 +1319,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1342,19 +1342,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>10</v>
@@ -1365,22 +1365,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>70</v>
@@ -1388,13 +1388,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>12</v>
@@ -1411,22 +1411,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>70</v>
@@ -1434,22 +1434,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>70</v>
@@ -1457,22 +1457,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>70</v>
@@ -1480,19 +1480,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
@@ -1503,19 +1503,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -1526,19 +1526,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>10</v>
@@ -1549,19 +1549,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>10</v>
@@ -1572,16 +1572,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
@@ -1595,22 +1595,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>70</v>
@@ -1618,19 +1618,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>10</v>
@@ -1641,22 +1641,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>70</v>
@@ -1664,19 +1664,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C45" s="1">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>10</v>
@@ -1687,13 +1687,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>12</v>
@@ -1710,45 +1710,45 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C47" s="1">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C48" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>70</v>
@@ -1756,19 +1756,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C49" s="1">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>10</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1">
         <v>3.5</v>
@@ -1791,7 +1791,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
@@ -1802,13 +1802,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C51" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>12</v>
@@ -1825,22 +1825,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C52" s="1">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>70</v>
@@ -1848,13 +1848,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C53" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>12</v>
@@ -1886,27 +1886,27 @@
         <v>9</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C55" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>10</v>
@@ -1917,22 +1917,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C56" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>70</v>
@@ -1940,36 +1940,36 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C57" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C58" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>12</v>
@@ -1986,22 +1986,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C59" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>70</v>
@@ -2009,22 +2009,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C60" s="1">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>70</v>
@@ -2054,7 +2054,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{9ECF1A7D-14E3-4060-B7D8-B18590D2B532}"/>
+  <autoFilter ref="A1:G1" xr:uid="{9ECF1A7D-14E3-4060-B7D8-B18590D2B532}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G61">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>